--- a/2h_input_jpg/2h_simulation_results.xlsx
+++ b/2h_input_jpg/2h_simulation_results.xlsx
@@ -27838,25 +27838,25 @@
         </is>
       </c>
       <c r="B979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
       <c r="C979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
       <c r="D979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
       <c r="E979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
       <c r="F979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
       <c r="G979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
       <c r="H979" t="n">
-        <v>691.5774450302124</v>
+        <v>1108.670936822891</v>
       </c>
     </row>
   </sheetData>
